--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_559.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_559.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g33043-d81855-Reviews-Motel_6_Santa_Ana-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>43</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Motel-6-Santa-Ana.h996395.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_559.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_559.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="202">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,480 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81855-r440021061-Motel_6_Santa_Ana-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>33043</t>
+  </si>
+  <si>
+    <t>81855</t>
+  </si>
+  <si>
+    <t>440021061</t>
+  </si>
+  <si>
+    <t>11/25/2016</t>
+  </si>
+  <si>
+    <t>OrdinarySue48</t>
+  </si>
+  <si>
+    <t>This is my first time in Santa Ana, Ca. but i've been to other states this month as i am on a road trip with my son.  I chose this Motel 6 because of the low prices during the Thanksgiving weekend and all of the other hotels were either booked or too pricey for me.  Anyway, reserving the room via the telephone reservation was awesome (thanks Kendra) and checking at the hotel itself was great.  Yadira, front desk reception specialist and Kraig (Mgr.) were very professional and friendly making the nerve wrecking drive on the freeway coming here (I-10, 215, 91) worth the drive.  The room is located near the office which is a plus for me and it is spacious, not like the other motels and it has a tub!!!  Anyway, i will continue my review to let future travelers know how my night went....stay tuned....MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>This is my first time in Santa Ana, Ca. but i've been to other states this month as i am on a road trip with my son.  I chose this Motel 6 because of the low prices during the Thanksgiving weekend and all of the other hotels were either booked or too pricey for me.  Anyway, reserving the room via the telephone reservation was awesome (thanks Kendra) and checking at the hotel itself was great.  Yadira, front desk reception specialist and Kraig (Mgr.) were very professional and friendly making the nerve wrecking drive on the freeway coming here (I-10, 215, 91) worth the drive.  The room is located near the office which is a plus for me and it is spacious, not like the other motels and it has a tub!!!  Anyway, i will continue my review to let future travelers know how my night went....stay tuned....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81855-r423368310-Motel_6_Santa_Ana-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>423368310</t>
+  </si>
+  <si>
+    <t>09/28/2016</t>
+  </si>
+  <si>
+    <t>Hotel regular</t>
+  </si>
+  <si>
+    <t>Hotel is ok, rooms are regular and smell musty, bath room with small cockroaches, place is quiet and well located, rates are regular and good to stay just a week end, there is enough parking space but wifi is not included 3 to 5 usd per day</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81855-r412536302-Motel_6_Santa_Ana-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>412536302</t>
+  </si>
+  <si>
+    <t>08/29/2016</t>
+  </si>
+  <si>
+    <t>Not very safe</t>
+  </si>
+  <si>
+    <t>Check in was fast, staff was very polite. Only problem is that our door wouldn't lock. We arrived around 12am with two small kids so we didn't get much sleep. Room was clean I love motel 6 I would love it a bit more if they fixed the locks.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81855-r373515489-Motel_6_Santa_Ana-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>373515489</t>
+  </si>
+  <si>
+    <t>05/16/2016</t>
+  </si>
+  <si>
+    <t>Good for an overnight stay.</t>
+  </si>
+  <si>
+    <t>I stayed here in April. The room was clean but the bathroom needed repairs, the shower was rusted and they didn't provide any shampoo or soap. The hotel staff were quite friendly, even though it was a last minute check in. Overall it was OK for one night. The location is about a mile from the airport, so if you are looking for convenience,its perfect.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81855-r353221272-Motel_6_Santa_Ana-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>353221272</t>
+  </si>
+  <si>
+    <t>03/05/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worse experience of my life. </t>
+  </si>
+  <si>
+    <t>Worse experience in my life. First of all the customer service was bad, but I thought to myself we are only staying one night. Then at the crack of dawn someone is banging at our door ( not knocking) banging! My boyfriend gets up to see who it is, it was a lady who looked very confused apologized and walked away. Then maybe 30 mins late we hear more banging at our door. This time I answered the door and this time it was a whole different lady with her child who had the same confused look on her face apologized and waked away. I was so annoyed with this whole thing. I finally walked to the office to ask why I have so many people banging at my door. Her response was " well the previous renter lived here or almost 2 weeks and he often had visitors, so that's who is probably knocking at your door looking for him. " I told her I was very unhappy, what can she do for me. She said I can have my manager call your room when he gets in. The manager didn't do anything for us. He didn't even seem to care how horrible our stay was. Not only that, the beds were hard as rocks making it in possible to fall asleep and stay asleep. My boyfriend and I both toss and turned all night long. MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Santa Ana, responded to this reviewResponded March 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2016</t>
+  </si>
+  <si>
+    <t>Worse experience in my life. First of all the customer service was bad, but I thought to myself we are only staying one night. Then at the crack of dawn someone is banging at our door ( not knocking) banging! My boyfriend gets up to see who it is, it was a lady who looked very confused apologized and walked away. Then maybe 30 mins late we hear more banging at our door. This time I answered the door and this time it was a whole different lady with her child who had the same confused look on her face apologized and waked away. I was so annoyed with this whole thing. I finally walked to the office to ask why I have so many people banging at my door. Her response was " well the previous renter lived here or almost 2 weeks and he often had visitors, so that's who is probably knocking at your door looking for him. " I told her I was very unhappy, what can she do for me. She said I can have my manager call your room when he gets in. The manager didn't do anything for us. He didn't even seem to care how horrible our stay was. Not only that, the beds were hard as rocks making it in possible to fall asleep and stay asleep. My boyfriend and I both toss and turned all night long. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81855-r334158786-Motel_6_Santa_Ana-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>334158786</t>
+  </si>
+  <si>
+    <t>12/20/2015</t>
+  </si>
+  <si>
+    <t>Not a place to stay</t>
+  </si>
+  <si>
+    <t>Low quality and they charge for everything.I would never recommend any one. Even wifi is charged and poorly maintained hotel.It does not worth the money spent. Only positive is near to i5 freeway.Their is very little assistance for the front desk.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81855-r311592480-Motel_6_Santa_Ana-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>311592480</t>
+  </si>
+  <si>
+    <t>09/18/2015</t>
+  </si>
+  <si>
+    <t>Vacation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was on a trip with my brother and needed a one night stay. The room was really nice, the people were friendly, and the price was reasonable. The beds were comfy so I slept well! One thing I didn't like was the AC didn't work that well but that's the only thing I didn't like. </t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81855-r311191097-Motel_6_Santa_Ana-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>311191097</t>
+  </si>
+  <si>
+    <t>09/16/2015</t>
+  </si>
+  <si>
+    <t>HORRRIBLE Customer Service!!!</t>
+  </si>
+  <si>
+    <t>I have never had such a bad experience in ANY other Hotel! I booked a reservation for a 2 night business trip stay. On the 2nd day of my stay, I return to find my room rented out to somebody else , my personal clothes, business materials, clothes and toiletries were removed from my room &amp; shoved into a plastic garbage bag and put in back of front desk along with my suitcase!! No cell phone call, or anything to confirm their mistake! On top of that I had a 6 pack of beer that was never returned,( which I assume the staff took And drank when throwing my stuff out of my room). I am appaulled!! Absolutely appaulled!Upon me showing themMy reservation on my phone from Corp. to ask why this happened, I got a meaningless mumbled "sorry.." And they didn't even offer a discount! This hotel Sucks!! Do not stay here!!! I'm only giving 1 Star rating, because this review makes me. I'd rather give a -5 .HORRRRRRIBLE!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, brand expericened team member at Motel 6 Santa Ana, responded to this reviewResponded September 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 18, 2015</t>
+  </si>
+  <si>
+    <t>I have never had such a bad experience in ANY other Hotel! I booked a reservation for a 2 night business trip stay. On the 2nd day of my stay, I return to find my room rented out to somebody else , my personal clothes, business materials, clothes and toiletries were removed from my room &amp; shoved into a plastic garbage bag and put in back of front desk along with my suitcase!! No cell phone call, or anything to confirm their mistake! On top of that I had a 6 pack of beer that was never returned,( which I assume the staff took And drank when throwing my stuff out of my room). I am appaulled!! Absolutely appaulled!Upon me showing themMy reservation on my phone from Corp. to ask why this happened, I got a meaningless mumbled "sorry.." And they didn't even offer a discount! This hotel Sucks!! Do not stay here!!! I'm only giving 1 Star rating, because this review makes me. I'd rather give a -5 .HORRRRRRIBLE!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81855-r294238381-Motel_6_Santa_Ana-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>294238381</t>
+  </si>
+  <si>
+    <t>07/30/2015</t>
+  </si>
+  <si>
+    <t>Santa Ana 1st street Motel 6</t>
+  </si>
+  <si>
+    <t>The staff was pleasant and helpful And Laura at the front desk was very helpful. However the rooms were not what was expected   We had requested 2 non-smoking rooms that had to be changed to 1&amp;1. Not good. Will never use a smoking room again. Could not get the smell out.  The pool was not clean upon arrival but was by checkout.  Next time I will check it out a little more before letting price$ be the only factor.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Santa Ana, responded to this reviewResponded July 31, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2015</t>
+  </si>
+  <si>
+    <t>The staff was pleasant and helpful And Laura at the front desk was very helpful. However the rooms were not what was expected   We had requested 2 non-smoking rooms that had to be changed to 1&amp;1. Not good. Will never use a smoking room again. Could not get the smell out.  The pool was not clean upon arrival but was by checkout.  Next time I will check it out a little more before letting price$ be the only factor.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81855-r225502421-Motel_6_Santa_Ana-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>225502421</t>
+  </si>
+  <si>
+    <t>08/30/2014</t>
+  </si>
+  <si>
+    <t>Just to sleep...</t>
+  </si>
+  <si>
+    <t>I spent one night only at this motel. They are very cold at the reception and people are not friendly. The girl at the reception was reallly bored and  probably she would like to be anywhere else but there.The room was really close to the swimming pool so early in the morning there was some kids screaming right beside my door.The room is okay if u go there just to sleep and take a shower before going out again.They are in the corner of a highway so you can hear all the traffic all night long. Remember you are in Califórnia, so there are more cars then people on the streets.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>I spent one night only at this motel. They are very cold at the reception and people are not friendly. The girl at the reception was reallly bored and  probably she would like to be anywhere else but there.The room was really close to the swimming pool so early in the morning there was some kids screaming right beside my door.The room is okay if u go there just to sleep and take a shower before going out again.They are in the corner of a highway so you can hear all the traffic all night long. Remember you are in Califórnia, so there are more cars then people on the streets.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81855-r222093260-Motel_6_Santa_Ana-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>222093260</t>
+  </si>
+  <si>
+    <t>08/15/2014</t>
+  </si>
+  <si>
+    <t>not bad for sleep only</t>
+  </si>
+  <si>
+    <t>Just stayed here last night.  Although the room looked recently refurbished the hotel isn't located in a nice area. I was comped a free night of free WiFi it was very slow.  It was also odd that the morning clerk told me I was given a discount as they can't do tax exempt rooms, even though I was there on business for a non profit</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81855-r214572421-Motel_6_Santa_Ana-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>214572421</t>
+  </si>
+  <si>
+    <t>07/09/2014</t>
+  </si>
+  <si>
+    <t>best motel 6 staff ever</t>
+  </si>
+  <si>
+    <t>after booking my stay at this motel sex 3 booking.com I found out that booking.com didn't go through with the payment and the people that had book the reservation were no longer at work for the day they left me out there without a room without a remedy the manager Craig unbelievably enough went above and beyond to make sure I had a place to stay for the night giving me room with a flat screen TV nice hardwood floors unbelievably clean for me and my dog to stay at. The hotel is conveniently placed right across the street from restaurants donut shops and markets and down the street from a zoo and laundry mat this is the best motel 6 i have stayed at in a long time and I have stayed at motel 6's in almost every West Coast locationMoreShow less</t>
+  </si>
+  <si>
+    <t>after booking my stay at this motel sex 3 booking.com I found out that booking.com didn't go through with the payment and the people that had book the reservation were no longer at work for the day they left me out there without a room without a remedy the manager Craig unbelievably enough went above and beyond to make sure I had a place to stay for the night giving me room with a flat screen TV nice hardwood floors unbelievably clean for me and my dog to stay at. The hotel is conveniently placed right across the street from restaurants donut shops and markets and down the street from a zoo and laundry mat this is the best motel 6 i have stayed at in a long time and I have stayed at motel 6's in almost every West Coast locationMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81855-r199464154-Motel_6_Santa_Ana-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>199464154</t>
+  </si>
+  <si>
+    <t>03/31/2014</t>
+  </si>
+  <si>
+    <t>Avoid at All Costs</t>
+  </si>
+  <si>
+    <t>We just needed a place to sleep on our way from San Francisco to San Diego, and wanted to get south of LA. I can't even describe the smell that was overwhelming from the minute we walked in the door. Urine and cheap deodorizer are two distinct odors that come to mind. The sheets were stained and there was little light. I slept with a hoodie over my head so I didn't have to touch the pillow. The man at the front desk was very unwelcoming, and really just uncomfortable to talk to. We arrived at 1:30 AM and left around 8, so we just needed a place to sleep, but I would never stop here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>We just needed a place to sleep on our way from San Francisco to San Diego, and wanted to get south of LA. I can't even describe the smell that was overwhelming from the minute we walked in the door. Urine and cheap deodorizer are two distinct odors that come to mind. The sheets were stained and there was little light. I slept with a hoodie over my head so I didn't have to touch the pillow. The man at the front desk was very unwelcoming, and really just uncomfortable to talk to. We arrived at 1:30 AM and left around 8, so we just needed a place to sleep, but I would never stop here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81855-r189428533-Motel_6_Santa_Ana-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>189428533</t>
+  </si>
+  <si>
+    <t>01/02/2014</t>
+  </si>
+  <si>
+    <t>Nice place to stay</t>
+  </si>
+  <si>
+    <t>For us was a good experience, staff very friendly, we ask for more towels and we got them in less than five minutes, no noises outside we stayed for two nights and slept very well, good choice for a good night sleep after visiting Disneyland, clean rooms. The only thing we didn't like is that you have to pay for wifi.</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81855-r165389741-Motel_6_Santa_Ana-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>165389741</t>
+  </si>
+  <si>
+    <t>06/26/2013</t>
+  </si>
+  <si>
+    <t>Most horrible motel I've ever stayed in</t>
+  </si>
+  <si>
+    <t>If you're a non smoker, who wants to get a good night sleep, this is not the place for you.  If you're a vagabond who pay for the room in quarter and cents and smoke like a chimney, that's your place.  For normal people it's not.  Low, low, low class.</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81855-r137583077-Motel_6_Santa_Ana-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>137583077</t>
+  </si>
+  <si>
+    <t>08/18/2012</t>
+  </si>
+  <si>
+    <t>The E.Coli of Hotels</t>
+  </si>
+  <si>
+    <t>Do you enjoy flies buzzing about the front door of the hotel?...Do you enjoy once a week room cleaning?...How about ROACHES in the room?....Then this is the place for you! After a couple of days at this garbage pit, I began to experience severe bouts of nausea and vertigo (room spinning around) and discovered that as soon as I left the hotel, these issues went away.I would wake up the next morning with the same problems.After a few days of this, my wife convinced me to go to the hospital, where they ran me thru a battery of tests(M.R.I. and bloodwork)only to send me on my way with what they thought was an ear infection.The only thing is,they had looked in my ears and found nothing wrong and didn't prescribe an antibiotic(required by law when an infection is suspected).Upon returning to the motel,here comes the sickness again! Then I find roaches in the ceiling light! That was enough for me! I checked out and found a different hotel to stay in and all my symptoms disappeared,never to return again. So,you tell me...coincidence? I don't think so.Now I have a $2,000.00+ hospital bill to pay thanks to this germ-farm.Do yourself a favor...AVOID THIS PLACE LIKE THE PLAGUE!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>Do you enjoy flies buzzing about the front door of the hotel?...Do you enjoy once a week room cleaning?...How about ROACHES in the room?....Then this is the place for you! After a couple of days at this garbage pit, I began to experience severe bouts of nausea and vertigo (room spinning around) and discovered that as soon as I left the hotel, these issues went away.I would wake up the next morning with the same problems.After a few days of this, my wife convinced me to go to the hospital, where they ran me thru a battery of tests(M.R.I. and bloodwork)only to send me on my way with what they thought was an ear infection.The only thing is,they had looked in my ears and found nothing wrong and didn't prescribe an antibiotic(required by law when an infection is suspected).Upon returning to the motel,here comes the sickness again! Then I find roaches in the ceiling light! That was enough for me! I checked out and found a different hotel to stay in and all my symptoms disappeared,never to return again. So,you tell me...coincidence? I don't think so.Now I have a $2,000.00+ hospital bill to pay thanks to this germ-farm.Do yourself a favor...AVOID THIS PLACE LIKE THE PLAGUE!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81855-r120255237-Motel_6_Santa_Ana-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>120255237</t>
+  </si>
+  <si>
+    <t>11/06/2011</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Everything was great the location the staff and desk clerks but the security guard was a goober..Knocking on my door at 3 a.m. for nothing asking was there someone else in my room and when I siad no I got no apology...Not only that I caught him in and out of a girl room who was obviously prostituting...What a lame  otis security guard lol</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81855-r117554570-Motel_6_Santa_Ana-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>117554570</t>
+  </si>
+  <si>
+    <t>09/01/2011</t>
+  </si>
+  <si>
+    <t>The staff at this hotel took very good care of me, and I will be back.</t>
+  </si>
+  <si>
+    <t>When i arrived at Motel 6 in Santa Ana, the staff was friendly, and gave me a good room.  I felt safe and secure in the motel.  The next morning, the staff asked me about my stay, and if I was comfortable.  I was very happy with the service, and I will be back.</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81855-r98900337-Motel_6_Santa_Ana-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>98900337</t>
+  </si>
+  <si>
+    <t>03/04/2011</t>
+  </si>
+  <si>
+    <t>Oscar @ the front desk showed excellent customer service</t>
+  </si>
+  <si>
+    <t>I arranged a room via the MOtel 6 1-800 phone line &amp; was incorrectly booked for the wrong night.  Oscar @ the property's front desk informed me that the property was sold out for the evening, but after learning about my dilemma he went out of his way to secure a room @ a neighboring property for me @ a great rate.  Oscar showed he recognized my value &amp; was sincere in helping me out.  EXCELLENT CUSTOMER SERVICE.Thanks Oscar...I will come back because of you.</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81855-r98310860-Motel_6_Santa_Ana-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>98310860</t>
+  </si>
+  <si>
+    <t>02/27/2011</t>
+  </si>
+  <si>
+    <t>Santa Ana is the best</t>
+  </si>
+  <si>
+    <t>I travel for a living and stay at Motel 6 all across the country. My stay at the Santa Ana location was by far the best stay I have had yet out of 30 locations. The staff was both courtius and prompt in service. Keep up the good work. Its nice to know you have a clean safe place to go back to after work</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81855-r90257727-Motel_6_Santa_Ana-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>90257727</t>
+  </si>
+  <si>
+    <t>12/19/2010</t>
+  </si>
+  <si>
+    <t>Never again</t>
+  </si>
+  <si>
+    <t>The guests upstairs kept us awake for 3 solid hours - from 1:30 - 4:30 a.m. They were shouting, laughing, stomping, throwing things against the wall, etc. It was scary. We contacted the front desk, but the noise continued. It was a terrible night. We asked for a refund but were denied. I contacted Motel 6 headquarters and they said they would check into the matter. I never heard from them again.</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81855-r5189122-Motel_6_Santa_Ana-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>5189122</t>
+  </si>
+  <si>
+    <t>05/21/2006</t>
+  </si>
+  <si>
+    <t>Newly remodeled and very clean</t>
+  </si>
+  <si>
+    <t>Originally had reservations at Guest Inn-had to leave because it was so filthy!  Moved down the road to Motel 6 (early in the morning and they let me check in) into a newly renovated room which was very nice. Front desk people were very helpful, which relieved the anxiety and frustration from the earlier motel experience. If you are looking for a good value and a clean room stay at this Motel 6.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81855-r3289071-Motel_6_Santa_Ana-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>3289071</t>
+  </si>
+  <si>
+    <t>03/19/2005</t>
+  </si>
+  <si>
+    <t>better than most in area</t>
+  </si>
+  <si>
+    <t>Made a reservation over the internet and got a good internet price.  Really very basic (bring your own shampoo) but very clean and comfortable room.  Corner room #200 is non-smoking, with a windows facing two directions.  The desk people are friendly and efficient.  If you are on the road and have no resevations they have available a convenient Motel 6 directory with maps that you can carry with you to call ahead.  This saves time and energy trying to find a place for then night.  I was surprised by how well Motel 6 is run since it has been under new ownership by an international hotel chain, Accor.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81855-r1368190-Motel_6_Santa_Ana-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>1368190</t>
+  </si>
+  <si>
+    <t>09/25/2003</t>
+  </si>
+  <si>
+    <t>Not bad at all!</t>
+  </si>
+  <si>
+    <t>I have been to Orange County for several times, and this Motel 6 is where I stay for almost everytime. I am not sure why but the hotels or resorts are pretty expensive in Orange County. Although there are no hotel of service or resort level of room, this Motel6 is pretty good already over all. So if you want a cheaper place and a clean room to stay, I would recommand you this one for sure.</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1122,1480 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>23882</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>23882</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>23882</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>23882</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>23882</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>80</v>
+      </c>
+      <c r="X6" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>23882</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>23882</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>23882</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>93</v>
+      </c>
+      <c r="O9" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>99</v>
+      </c>
+      <c r="X9" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>23882</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L10" t="s">
+        <v>106</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>107</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>108</v>
+      </c>
+      <c r="X10" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>23882</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" t="s">
+        <v>113</v>
+      </c>
+      <c r="K11" t="s">
+        <v>114</v>
+      </c>
+      <c r="L11" t="s">
+        <v>115</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>116</v>
+      </c>
+      <c r="O11" t="s">
+        <v>117</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>23882</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>120</v>
+      </c>
+      <c r="J12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K12" t="s">
+        <v>122</v>
+      </c>
+      <c r="L12" t="s">
+        <v>123</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>124</v>
+      </c>
+      <c r="O12" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>23882</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>126</v>
+      </c>
+      <c r="J13" t="s">
+        <v>127</v>
+      </c>
+      <c r="K13" t="s">
+        <v>128</v>
+      </c>
+      <c r="L13" t="s">
+        <v>129</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>23882</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>132</v>
+      </c>
+      <c r="J14" t="s">
+        <v>133</v>
+      </c>
+      <c r="K14" t="s">
+        <v>134</v>
+      </c>
+      <c r="L14" t="s">
+        <v>135</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>136</v>
+      </c>
+      <c r="O14" t="s">
+        <v>137</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>23882</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>139</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>140</v>
+      </c>
+      <c r="J15" t="s">
+        <v>141</v>
+      </c>
+      <c r="K15" t="s">
+        <v>142</v>
+      </c>
+      <c r="L15" t="s">
+        <v>143</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>144</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>23882</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>145</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>146</v>
+      </c>
+      <c r="J16" t="s">
+        <v>147</v>
+      </c>
+      <c r="K16" t="s">
+        <v>148</v>
+      </c>
+      <c r="L16" t="s">
+        <v>149</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>150</v>
+      </c>
+      <c r="O16" t="s">
+        <v>74</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>23882</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>151</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>152</v>
+      </c>
+      <c r="J17" t="s">
+        <v>153</v>
+      </c>
+      <c r="K17" t="s">
+        <v>154</v>
+      </c>
+      <c r="L17" t="s">
+        <v>155</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>156</v>
+      </c>
+      <c r="O17" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>23882</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>158</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>159</v>
+      </c>
+      <c r="J18" t="s">
+        <v>160</v>
+      </c>
+      <c r="K18" t="s">
+        <v>161</v>
+      </c>
+      <c r="L18" t="s">
+        <v>162</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>163</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>23882</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>164</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>165</v>
+      </c>
+      <c r="J19" t="s">
+        <v>166</v>
+      </c>
+      <c r="K19" t="s">
+        <v>167</v>
+      </c>
+      <c r="L19" t="s">
+        <v>168</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>169</v>
+      </c>
+      <c r="O19" t="s">
+        <v>74</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>23882</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>170</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>171</v>
+      </c>
+      <c r="J20" t="s">
+        <v>172</v>
+      </c>
+      <c r="K20" t="s">
+        <v>173</v>
+      </c>
+      <c r="L20" t="s">
+        <v>174</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>175</v>
+      </c>
+      <c r="O20" t="s">
+        <v>61</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>23882</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>176</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>177</v>
+      </c>
+      <c r="J21" t="s">
+        <v>178</v>
+      </c>
+      <c r="K21" t="s">
+        <v>179</v>
+      </c>
+      <c r="L21" t="s">
+        <v>180</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>23882</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>181</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>182</v>
+      </c>
+      <c r="J22" t="s">
+        <v>183</v>
+      </c>
+      <c r="K22" t="s">
+        <v>184</v>
+      </c>
+      <c r="L22" t="s">
+        <v>185</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>186</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>23882</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>188</v>
+      </c>
+      <c r="J23" t="s">
+        <v>189</v>
+      </c>
+      <c r="K23" t="s">
+        <v>190</v>
+      </c>
+      <c r="L23" t="s">
+        <v>191</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23882</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>192</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>193</v>
+      </c>
+      <c r="J24" t="s">
+        <v>194</v>
+      </c>
+      <c r="K24" t="s">
+        <v>195</v>
+      </c>
+      <c r="L24" t="s">
+        <v>196</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23882</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>197</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>198</v>
+      </c>
+      <c r="J25" t="s">
+        <v>199</v>
+      </c>
+      <c r="K25" t="s">
+        <v>200</v>
+      </c>
+      <c r="L25" t="s">
+        <v>201</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>201</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_559.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_559.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="224">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>OrdinarySue48</t>
+  </si>
+  <si>
     <t>07/07/2018</t>
   </si>
   <si>
@@ -168,9 +171,6 @@
     <t>11/25/2016</t>
   </si>
   <si>
-    <t>OrdinarySue48</t>
-  </si>
-  <si>
     <t>This is my first time in Santa Ana, Ca. but i've been to other states this month as i am on a road trip with my son.  I chose this Motel 6 because of the low prices during the Thanksgiving weekend and all of the other hotels were either booked or too pricey for me.  Anyway, reserving the room via the telephone reservation was awesome (thanks Kendra) and checking at the hotel itself was great.  Yadira, front desk reception specialist and Kraig (Mgr.) were very professional and friendly making the nerve wrecking drive on the freeway coming here (I-10, 215, 91) worth the drive.  The room is located near the office which is a plus for me and it is spacious, not like the other motels and it has a tub!!!  Anyway, i will continue my review to let future travelers know how my night went....stay tuned....MoreShow less</t>
   </si>
   <si>
@@ -183,6 +183,9 @@
     <t>This is my first time in Santa Ana, Ca. but i've been to other states this month as i am on a road trip with my son.  I chose this Motel 6 because of the low prices during the Thanksgiving weekend and all of the other hotels were either booked or too pricey for me.  Anyway, reserving the room via the telephone reservation was awesome (thanks Kendra) and checking at the hotel itself was great.  Yadira, front desk reception specialist and Kraig (Mgr.) were very professional and friendly making the nerve wrecking drive on the freeway coming here (I-10, 215, 91) worth the drive.  The room is located near the office which is a plus for me and it is spacious, not like the other motels and it has a tub!!!  Anyway, i will continue my review to let future travelers know how my night went....stay tuned....More</t>
   </si>
   <si>
+    <t>Gilberto V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81855-r423368310-Motel_6_Santa_Ana-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -204,6 +207,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>EGar92</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81855-r412536302-Motel_6_Santa_Ana-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -222,6 +228,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>JT201677</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81855-r373515489-Motel_6_Santa_Ana-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -243,6 +252,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Honey A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81855-r353221272-Motel_6_Santa_Ana-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -267,6 +279,9 @@
     <t>Worse experience in my life. First of all the customer service was bad, but I thought to myself we are only staying one night. Then at the crack of dawn someone is banging at our door ( not knocking) banging! My boyfriend gets up to see who it is, it was a lady who looked very confused apologized and walked away. Then maybe 30 mins late we hear more banging at our door. This time I answered the door and this time it was a whole different lady with her child who had the same confused look on her face apologized and waked away. I was so annoyed with this whole thing. I finally walked to the office to ask why I have so many people banging at my door. Her response was " well the previous renter lived here or almost 2 weeks and he often had visitors, so that's who is probably knocking at your door looking for him. " I told her I was very unhappy, what can she do for me. She said I can have my manager call your room when he gets in. The manager didn't do anything for us. He didn't even seem to care how horrible our stay was. Not only that, the beds were hard as rocks making it in possible to fall asleep and stay asleep. My boyfriend and I both toss and turned all night long. More</t>
   </si>
   <si>
+    <t>vijay8056</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81855-r334158786-Motel_6_Santa_Ana-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -282,6 +297,9 @@
     <t>Low quality and they charge for everything.I would never recommend any one. Even wifi is charged and poorly maintained hotel.It does not worth the money spent. Only positive is near to i5 freeway.Their is very little assistance for the front desk.</t>
   </si>
   <si>
+    <t>Lance M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81855-r311592480-Motel_6_Santa_Ana-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -300,6 +318,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>Robert10120</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81855-r311191097-Motel_6_Santa_Ana-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -324,6 +345,9 @@
     <t>I have never had such a bad experience in ANY other Hotel! I booked a reservation for a 2 night business trip stay. On the 2nd day of my stay, I return to find my room rented out to somebody else , my personal clothes, business materials, clothes and toiletries were removed from my room &amp; shoved into a plastic garbage bag and put in back of front desk along with my suitcase!! No cell phone call, or anything to confirm their mistake! On top of that I had a 6 pack of beer that was never returned,( which I assume the staff took And drank when throwing my stuff out of my room). I am appaulled!! Absolutely appaulled!Upon me showing themMy reservation on my phone from Corp. to ask why this happened, I got a meaningless mumbled "sorry.." And they didn't even offer a discount! This hotel Sucks!! Do not stay here!!! I'm only giving 1 Star rating, because this review makes me. I'd rather give a -5 .HORRRRRRIBLE!!!!More</t>
   </si>
   <si>
+    <t>mmulkey</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81855-r294238381-Motel_6_Santa_Ana-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -351,6 +375,9 @@
     <t>The staff was pleasant and helpful And Laura at the front desk was very helpful. However the rooms were not what was expected   We had requested 2 non-smoking rooms that had to be changed to 1&amp;1. Not good. Will never use a smoking room again. Could not get the smell out.  The pool was not clean upon arrival but was by checkout.  Next time I will check it out a little more before letting price$ be the only factor.More</t>
   </si>
   <si>
+    <t>Gustavo B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81855-r225502421-Motel_6_Santa_Ana-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -375,6 +402,9 @@
     <t>I spent one night only at this motel. They are very cold at the reception and people are not friendly. The girl at the reception was reallly bored and  probably she would like to be anywhere else but there.The room was really close to the swimming pool so early in the morning there was some kids screaming right beside my door.The room is okay if u go there just to sleep and take a shower before going out again.They are in the corner of a highway so you can hear all the traffic all night long. Remember you are in Califórnia, so there are more cars then people on the streets.More</t>
   </si>
   <si>
+    <t>osanida</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81855-r222093260-Motel_6_Santa_Ana-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -393,6 +423,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>myke313</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81855-r214572421-Motel_6_Santa_Ana-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -411,6 +444,9 @@
     <t>after booking my stay at this motel sex 3 booking.com I found out that booking.com didn't go through with the payment and the people that had book the reservation were no longer at work for the day they left me out there without a room without a remedy the manager Craig unbelievably enough went above and beyond to make sure I had a place to stay for the night giving me room with a flat screen TV nice hardwood floors unbelievably clean for me and my dog to stay at. The hotel is conveniently placed right across the street from restaurants donut shops and markets and down the street from a zoo and laundry mat this is the best motel 6 i have stayed at in a long time and I have stayed at motel 6's in almost every West Coast locationMore</t>
   </si>
   <si>
+    <t>Laura L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81855-r199464154-Motel_6_Santa_Ana-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -435,6 +471,9 @@
     <t>We just needed a place to sleep on our way from San Francisco to San Diego, and wanted to get south of LA. I can't even describe the smell that was overwhelming from the minute we walked in the door. Urine and cheap deodorizer are two distinct odors that come to mind. The sheets were stained and there was little light. I slept with a hoodie over my head so I didn't have to touch the pillow. The man at the front desk was very unwelcoming, and really just uncomfortable to talk to. We arrived at 1:30 AM and left around 8, so we just needed a place to sleep, but I would never stop here again.More</t>
   </si>
   <si>
+    <t>Dana E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81855-r189428533-Motel_6_Santa_Ana-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -453,6 +492,9 @@
     <t>December 2013</t>
   </si>
   <si>
+    <t>Schirete Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81855-r165389741-Motel_6_Santa_Ana-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -471,6 +513,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>Mark P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81855-r137583077-Motel_6_Santa_Ana-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -492,6 +537,9 @@
     <t>Do you enjoy flies buzzing about the front door of the hotel?...Do you enjoy once a week room cleaning?...How about ROACHES in the room?....Then this is the place for you! After a couple of days at this garbage pit, I began to experience severe bouts of nausea and vertigo (room spinning around) and discovered that as soon as I left the hotel, these issues went away.I would wake up the next morning with the same problems.After a few days of this, my wife convinced me to go to the hospital, where they ran me thru a battery of tests(M.R.I. and bloodwork)only to send me on my way with what they thought was an ear infection.The only thing is,they had looked in my ears and found nothing wrong and didn't prescribe an antibiotic(required by law when an infection is suspected).Upon returning to the motel,here comes the sickness again! Then I find roaches in the ceiling light! That was enough for me! I checked out and found a different hotel to stay in and all my symptoms disappeared,never to return again. So,you tell me...coincidence? I don't think so.Now I have a $2,000.00+ hospital bill to pay thanks to this germ-farm.Do yourself a favor...AVOID THIS PLACE LIKE THE PLAGUE!!!More</t>
   </si>
   <si>
+    <t>Demarco F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81855-r120255237-Motel_6_Santa_Ana-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -510,6 +558,9 @@
     <t>June 2011</t>
   </si>
   <si>
+    <t>denisedgriffin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81855-r117554570-Motel_6_Santa_Ana-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -528,6 +579,9 @@
     <t>August 2011</t>
   </si>
   <si>
+    <t>DALEY868</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81855-r98900337-Motel_6_Santa_Ana-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -546,6 +600,9 @@
     <t>March 2011</t>
   </si>
   <si>
+    <t>ClearViewD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81855-r98310860-Motel_6_Santa_Ana-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -561,6 +618,9 @@
     <t>I travel for a living and stay at Motel 6 all across the country. My stay at the Santa Ana location was by far the best stay I have had yet out of 30 locations. The staff was both courtius and prompt in service. Keep up the good work. Its nice to know you have a clean safe place to go back to after work</t>
   </si>
   <si>
+    <t>daisymay1110</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81855-r90257727-Motel_6_Santa_Ana-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -579,6 +639,9 @@
     <t>November 2010</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81855-r5189122-Motel_6_Santa_Ana-Santa_Ana_California.html</t>
   </si>
   <si>
@@ -607,6 +670,9 @@
   </si>
   <si>
     <t>Made a reservation over the internet and got a good internet price.  Really very basic (bring your own shampoo) but very clean and comfortable room.  Corner room #200 is non-smoking, with a windows facing two directions.  The desk people are friendly and efficient.  If you are on the road and have no resevations they have available a convenient Motel 6 directory with maps that you can carry with you to call ahead.  This saves time and energy trying to find a place for then night.  I was surprised by how well Motel 6 is run since it has been under new ownership by an international hotel chain, Accor.</t>
+  </si>
+  <si>
+    <t>David T</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d81855-r1368190-Motel_6_Santa_Ana-Santa_Ana_California.html</t>
@@ -1126,31 +1192,35 @@
       <c r="A2" t="n">
         <v>23882</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" t="s">
         <v>44</v>
-      </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K2" t="s">
-        <v>50</v>
       </c>
       <c r="L2" t="s">
         <v>51</v>
@@ -1189,43 +1259,47 @@
       <c r="A3" t="n">
         <v>23882</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1239,47 +1313,51 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>23882</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
         <v>53</v>
@@ -1302,50 +1380,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>23882</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1359,41 +1441,45 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>23882</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
@@ -1410,47 +1496,51 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="X6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>23882</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
@@ -1469,47 +1559,51 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>23882</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="O8" t="s">
         <v>53</v>
@@ -1526,50 +1620,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>23882</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="J9" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L9" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="O9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1581,53 +1679,57 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="X9" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="Y9" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>23882</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="J10" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="K10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="L10" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="O10" t="s">
         <v>53</v>
@@ -1642,56 +1744,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="X10" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="Y10" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>23882</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>119</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="J11" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="K11" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="L11" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="O11" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="P11" t="n">
         <v>3</v>
@@ -1711,50 +1817,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>23882</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>128</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="J12" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="K12" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="L12" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="O12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -1768,41 +1878,45 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>23882</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>135</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="J13" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="K13" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="L13" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
@@ -1831,50 +1945,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>23882</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>142</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="J14" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="K14" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="L14" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="O14" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="P14" t="n">
         <v>3</v>
@@ -1898,47 +2016,51 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>23882</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>151</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="J15" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="K15" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="L15" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="O15" t="s">
         <v>53</v>
@@ -1965,50 +2087,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>23882</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>158</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="J16" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="K16" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="L16" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="O16" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
@@ -2032,50 +2158,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>23882</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>165</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="J17" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="K17" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="L17" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="O17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P17" t="n">
         <v>1</v>
@@ -2099,47 +2229,51 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>23882</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>173</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="J18" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="K18" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="L18" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="O18" t="s">
         <v>53</v>
@@ -2166,50 +2300,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>23882</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>180</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="J19" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="K19" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="L19" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="O19" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -2229,50 +2367,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>23882</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>187</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="J20" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="K20" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="L20" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="O20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -2296,41 +2438,45 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>23882</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>194</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="J21" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="K21" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="L21" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
@@ -2359,47 +2505,51 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>23882</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>200</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="J22" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="K22" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="L22" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="O22" t="s">
         <v>53</v>
@@ -2426,41 +2576,45 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>23882</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>207</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="J23" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="K23" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="L23" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
@@ -2487,41 +2641,45 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>23882</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>207</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="J24" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="K24" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="L24" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
@@ -2540,41 +2698,45 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>23882</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>218</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="J25" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="K25" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="L25" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
@@ -2593,7 +2755,7 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
